--- a/data/trans_dic/Predimed_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/Predimed_R3-Provincia-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0767377860146512</v>
+        <v>0.07515779351857918</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07824517151786274</v>
+        <v>0.07648853756428502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08521342402798211</v>
+        <v>0.08314177676488071</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1435005586442241</v>
+        <v>0.1421557414292183</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1296933212468473</v>
+        <v>0.130136211671404</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1262850156005703</v>
+        <v>0.1253359127291367</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.06709920243758925</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.0771659422997187</v>
+        <v>0.07716594229971868</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.0723144434171455</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04267403756210998</v>
+        <v>0.04427065815116511</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05816286021424921</v>
+        <v>0.05796503131795152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05684567162018575</v>
+        <v>0.0571069444303625</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1056471441678891</v>
+        <v>0.1012823248609542</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1002188255157255</v>
+        <v>0.1021269058054701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09280505304169151</v>
+        <v>0.09286996518878947</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.2776471282753121</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.2978881792706445</v>
+        <v>0.2978881792706446</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.2883530205943411</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2335373805457995</v>
+        <v>0.2339904118389491</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2560513339704932</v>
+        <v>0.257908749079362</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2584084096309733</v>
+        <v>0.2552748450242682</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3271194879479178</v>
+        <v>0.3270731125800219</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3342572700238969</v>
+        <v>0.3395047462631572</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.320333952717106</v>
+        <v>0.3210129121798954</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.4051863673226597</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.3964096235200303</v>
+        <v>0.3964096235200302</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.4004436134384752</v>
+        <v>0.4004436134384753</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3322139465554714</v>
+        <v>0.330160264775492</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3452521385586395</v>
+        <v>0.3483271222221146</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3579792875839526</v>
+        <v>0.3565556099037937</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4778548452602757</v>
+        <v>0.4815681474202068</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4494466441390559</v>
+        <v>0.450584913268798</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4448635647999943</v>
+        <v>0.4447618308760503</v>
       </c>
     </row>
     <row r="16">
@@ -790,7 +790,7 @@
         <v>0.3132266341662236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2614342654354534</v>
+        <v>0.2614342654354535</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1585551228963564</v>
+        <v>0.1563215376970903</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2644710995941089</v>
+        <v>0.2708115598385816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2314767815745065</v>
+        <v>0.2301237636269287</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2598686002170414</v>
+        <v>0.256804604059158</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3638307731752504</v>
+        <v>0.3625594146775205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3009541731667711</v>
+        <v>0.2980217537659394</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1118305802503626</v>
+        <v>0.1130293358790383</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07122363232556378</v>
+        <v>0.06976586816655372</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1012869014534155</v>
+        <v>0.1030956971036202</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1885822258801934</v>
+        <v>0.1888420128917699</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1250568711837947</v>
+        <v>0.1275582247905823</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.148063724181359</v>
+        <v>0.1523602344916399</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.3094127711315818</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3037574324979629</v>
+        <v>0.3037574324979628</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.3064584660893293</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2684804214828571</v>
+        <v>0.2710112606346944</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2731450778526907</v>
+        <v>0.2712741870099285</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2828969570945346</v>
+        <v>0.2813052110792343</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3461652754422146</v>
+        <v>0.3515627376059701</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3372937214596815</v>
+        <v>0.3350711509676154</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.33583683753361</v>
+        <v>0.3313744626566193</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.03412911485113671</v>
+        <v>0.03412911485113672</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.05393442469044911</v>
+        <v>0.05393442469044914</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.04425859116850266</v>
+        <v>0.04425859116850265</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02219759813008764</v>
+        <v>0.02262041319568998</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04077541812856619</v>
+        <v>0.04066232092969928</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03470510044908182</v>
+        <v>0.03509873758265634</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04825829740879836</v>
+        <v>0.04876372697770798</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.06977721966476956</v>
+        <v>0.06900109399981545</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05456766112067665</v>
+        <v>0.05468006794868406</v>
       </c>
     </row>
     <row r="28">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1762049522524151</v>
+        <v>0.176204952252415</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.1891432948173653</v>
@@ -1021,13 +1021,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1619818452644344</v>
+        <v>0.1617682454718691</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1782333375836077</v>
+        <v>0.1780243308393723</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.1739184650229608</v>
+        <v>0.1740681097043225</v>
       </c>
     </row>
     <row r="30">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1912824407906903</v>
+        <v>0.1928439616915051</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2021520911359051</v>
+        <v>0.2016148370559475</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.1923780378109735</v>
+        <v>0.192444072712786</v>
       </c>
     </row>
     <row r="31">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>24373</v>
+        <v>23871</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>24693</v>
+        <v>24138</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>53956</v>
+        <v>52644</v>
       </c>
     </row>
     <row r="7">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>45577</v>
+        <v>45150</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>40929</v>
+        <v>41069</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>79962</v>
+        <v>79361</v>
       </c>
     </row>
     <row r="8">
@@ -1262,13 +1262,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19403</v>
+        <v>20129</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28428</v>
+        <v>28331</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>53630</v>
+        <v>53876</v>
       </c>
     </row>
     <row r="11">
@@ -1279,13 +1279,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>48035</v>
+        <v>46050</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>48983</v>
+        <v>49916</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>87555</v>
+        <v>87616</v>
       </c>
     </row>
     <row r="12">
@@ -1334,13 +1334,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>68678</v>
+        <v>68811</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>84544</v>
+        <v>85158</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>161315</v>
+        <v>159359</v>
       </c>
     </row>
     <row r="15">
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>96199</v>
+        <v>96185</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>110367</v>
+        <v>112099</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>199973</v>
+        <v>200396</v>
       </c>
     </row>
     <row r="16">
@@ -1406,13 +1406,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>95197</v>
+        <v>94608</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>116315</v>
+        <v>117351</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>223183</v>
+        <v>222296</v>
       </c>
     </row>
     <row r="19">
@@ -1423,13 +1423,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>136931</v>
+        <v>137995</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>151419</v>
+        <v>151802</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>277352</v>
+        <v>277288</v>
       </c>
     </row>
     <row r="20">
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>31750</v>
+        <v>31303</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>59002</v>
+        <v>60416</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>97993</v>
+        <v>97421</v>
       </c>
     </row>
     <row r="23">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>52038</v>
+        <v>51424</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>81168</v>
+        <v>80885</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>127406</v>
+        <v>126165</v>
       </c>
     </row>
     <row r="24">
@@ -1550,13 +1550,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>29993</v>
+        <v>30314</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>18607</v>
+        <v>18226</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>53625</v>
+        <v>54583</v>
       </c>
     </row>
     <row r="27">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>50577</v>
+        <v>50647</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>32670</v>
+        <v>33324</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>78391</v>
+        <v>80666</v>
       </c>
     </row>
     <row r="28">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>180911</v>
+        <v>182616</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>201312</v>
+        <v>199933</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>399124</v>
+        <v>396879</v>
       </c>
     </row>
     <row r="31">
@@ -1639,13 +1639,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>233257</v>
+        <v>236894</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>248591</v>
+        <v>246953</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>473814</v>
+        <v>467519</v>
       </c>
     </row>
     <row r="32">
@@ -1694,13 +1694,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>17361</v>
+        <v>17692</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>33386</v>
+        <v>33293</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>55559</v>
+        <v>56189</v>
       </c>
     </row>
     <row r="35">
@@ -1711,13 +1711,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>37743</v>
+        <v>38138</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>57132</v>
+        <v>56496</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>87356</v>
+        <v>87536</v>
       </c>
     </row>
     <row r="36">
@@ -1766,13 +1766,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>530862</v>
+        <v>530162</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>625876</v>
+        <v>625142</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1180706</v>
+        <v>1181721</v>
       </c>
     </row>
     <row r="39">
@@ -1783,13 +1783,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>626888</v>
+        <v>632006</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>709868</v>
+        <v>707981</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1306025</v>
+        <v>1306473</v>
       </c>
     </row>
     <row r="40">
